--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28422.55647011528</v>
+        <v>1705353.388206916</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28422.55647011528</v>
+        <v>1705353.388206916</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036860053.34523</v>
+        <v>42897387.18244662</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10550.32491223596</v>
+        <v>1135603.685174188</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19435.41905730968</v>
+        <v>1985683.187398689</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28320.51320238339</v>
+        <v>2835762.689623191</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38148.19505547782</v>
+        <v>3634768.248997319</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47975.87690857222</v>
+        <v>4433773.808371448</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56962.91433904324</v>
+        <v>5283593.334208446</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65949.95176951426</v>
+        <v>6133412.86004544</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74936.98919998528</v>
+        <v>6983232.385882436</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84550.85287126158</v>
+        <v>7765218.017983833</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94250.2438152651</v>
+        <v>8564223.577357957</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103949.6347592686</v>
+        <v>9363229.136732087</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113649.0257032722</v>
+        <v>10162234.69610622</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123348.4166472757</v>
+        <v>10961240.25548036</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133047.8075912793</v>
+        <v>11760245.81485449</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142747.1985352828</v>
+        <v>12559251.37422863</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27055,7 +27055,7 @@
         <v>132</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
